--- a/docs/Stage2.xlsx
+++ b/docs/Stage2.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27417"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27309"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="83">
   <si>
     <t>Parts</t>
   </si>
@@ -74,21 +74,12 @@
     <t>Acrylic 6mm</t>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>Acryllic 4mm</t>
-  </si>
-  <si>
     <t>Local 10G SFP+</t>
   </si>
   <si>
     <t>https://www.pbtech.co.nz/product/NWXMLX1070/Mellanox-optical-module-ETH-10GbE-10Gbs-SFP-LC-LC</t>
   </si>
   <si>
-    <t>Cheaper 10G SFP+</t>
-  </si>
-  <si>
     <t>LC/LC Multimode Patch</t>
   </si>
   <si>
@@ -119,9 +110,6 @@
     <t>http://nz.element14.com/nxp/74hc595d/ic-74hc-cmos-smd-74hc595-soic16/dp/1201269</t>
   </si>
   <si>
-    <t>SMT LED</t>
-  </si>
-  <si>
     <t>SMT Resistor</t>
   </si>
   <si>
@@ -242,21 +230,6 @@
     <t>https://www.aliexpress.com/item/50-pc-lot-M2-M2-5-M3-M4-L-4-50mm-DIN7991-Stainless-Steel-A2/32771971461.html?spm=2114.01010208.3.54.IkVp2G&amp;ws_ab_test=searchweb0_0,searchweb201602_1_10065_10068_10000032_119_10000025_10000029_430_10000028_10060_10062_10056_10055_10000062_10054_10059_10099_10000022_10000012_10103_10000015_10102_10096_10000018_10000019_10000056_10000059_10052_10053_10107_10050_10106_10051_10000053_10000007_10000050_10084_10083_10000047_10080_10082_10081_10110_10111_10112_10113_10114_10115_10037_10033_10000041_10000044_10078_10079_10077_10000038_429_10073_10000035_10121-119,searchweb201603_10,afswitch_1,single_sort_2_default&amp;btsid=93629077-336e-46b6-bf60-2278d4054881</t>
   </si>
   <si>
-    <t>DENIS: What is the length</t>
-  </si>
-  <si>
-    <t>http://www.ebay.com/itm/Mellanox-Compatible-MC3208011-SX-1000BASE-SX-550m-MMF-850nm-SFP-/302142493980?hash=item465918951c:g:MlAAAOSw5cNYL7OT</t>
-  </si>
-  <si>
-    <t>ONE OR THE OTHER</t>
-  </si>
-  <si>
-    <t>PACKAGE?</t>
-  </si>
-  <si>
-    <t>VALUE?</t>
-  </si>
-  <si>
     <t>M3 Nuts</t>
   </si>
   <si>
@@ -267,6 +240,45 @@
   </si>
   <si>
     <t>https://www.aliexpress.com/item/100pcs-M4-Nuts-A2-Stainless-Steel-Hex-Nuts-To-Fit-Our-Bolts-and-Screws/32668797352.html?spm=2114.01010208.3.75.Nx15dq&amp;ws_ab_test=searchweb0_0,searchweb201602_1_10065_10068_10000032_119_10000025_10000029_430_10000028_10060_10062_10056_10055_10000062_10054_10059_10099_10000022_10000012_10103_10000015_10102_10096_10000018_10000019_10000056_10000059_10052_10053_10107_10050_10106_10051_10000053_10000007_10000050_10084_10083_10000047_10080_10082_10081_10110_10111_10112_10113_10114_10115_10037_10000041_10000044_10078_10079_10077_10000038_429_10073_10000035_10121-10111,searchweb201603_10,afswitch_1,single_sort_2_default&amp;btsid=fc650fe4-dd58-46f4-9946-35ded9578469</t>
+  </si>
+  <si>
+    <t>Acryllic 4.5mm</t>
+  </si>
+  <si>
+    <t>http://www.anythingacrylic.co.nz/flat-sheets/</t>
+  </si>
+  <si>
+    <t>Cut to 900x600</t>
+  </si>
+  <si>
+    <t>http://nz.element14.com/kingbright/kptr-3216seck/led-orange-1206-smd/dp/2099254?mckv=s%7Cpcrid%7C155921535509&amp;CMP=KNC-GOO-SHOPPING-2099254&amp;gclid=Cj0KEQiAw_DEBRChnYiQ_562gsEBEiQA4LcssiZEwu54L5YAQTWWDQz7LCWym6-g0Tg5oGbmrI6jbHwaArlZ8P8HAQ&amp;gross_price=true</t>
+  </si>
+  <si>
+    <t>SMD LED</t>
+  </si>
+  <si>
+    <t>http://nz.element14.com/vishay/crcw0402150rfkedhp/res-thick-film-150r-1-0-125w-0402/dp/1738839</t>
+  </si>
+  <si>
+    <t>https://www.aliexpress.com/item/280PCS-1-8-H-Assorted-Halogen-free-2-1-Polyolefin-Insulation-HeatShrink-Tubing-Tube-Kit-Shrinkable/32675699214.html?spm=2114.01010208.3.51.mgBOKD&amp;ws_ab_test=searchweb0_0,searchweb201602_4_10065_10068_10000074_10000032_119_10000025_10000029_430_10000028_10060_10000067_10062_10056_10055_10000062_10054_10059_10099_10000022_10000013_10103_10102_10000016_10096_10000018_10000019_10000056_10000059_10052_10053_10107_10050_10106_10051_10000053_10000007_10000050_10084_10083_10000047_10080_10082_10081_10110_10111_10112_10113_10114_10115_10037_10000041_10000044_10078_10079_10077_10000038_10073_10000035_10121,searchweb201603_2,afswitch_3,single_sort_2_default&amp;btsid=2143be86-750e-44cf-8726-1fb197563de3</t>
+  </si>
+  <si>
+    <t>Fork Crimps</t>
+  </si>
+  <si>
+    <t>https://www.aliexpress.com/item/1000Pcs-Electrical-Wire-Connector-Insulated-Crimp-Terminals-Kit-Spade-Assorted-Set-Fork-Ring-Assorted-Set-With/32751240130.html?spm=2114.01010208.3.2.Zd4bkS&amp;ws_ab_test=searchweb0_0,searchweb201602_4_10065_10068_10000074_10000032_119_10000025_10000029_430_10000028_10060_10000067_10062_10056_10055_10000062_10054_10059_10099_10000022_10000013_10103_10102_10000016_10096_10000018_10000019_10000056_10000059_10052_10053_10107_10050_10106_10051_10000053_10000007_10000050_10084_10083_10000047_10080_10082_10081_10110_10111_10112_10113_10114_10115_10037_10000041_10000044_10078_10079_10077_10000038_10073_10000035_10121,searchweb201603_2,afswitch_3,single_sort_2_default&amp;btsid=dfa20409-8e0b-45d8-ac69-3356d8d65b81</t>
+  </si>
+  <si>
+    <t>Acrylic Cement</t>
+  </si>
+  <si>
+    <t>http://www.anythingacrylic.co.nz/anything-acrylic/accessories/acrylic-cement/</t>
+  </si>
+  <si>
+    <t>Choose M4 length 30mm</t>
+  </si>
+  <si>
+    <t>Choose 5oz</t>
   </si>
 </sst>
 </file>
@@ -331,9 +343,6 @@
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -347,6 +356,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -625,10 +637,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I36"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+      <selection activeCell="J45" sqref="J45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -638,39 +650,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
       <c r="I1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I2">
@@ -678,685 +690,736 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>60</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="3">
+      <c r="D3" s="1"/>
+      <c r="E3" s="2">
         <v>0.77900000000000003</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="1">
         <f>E3*C3</f>
         <v>46.74</v>
       </c>
-      <c r="G3" s="2"/>
+      <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <v>100</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="5">
+      <c r="D4" s="3"/>
+      <c r="E4" s="4">
         <v>1.54</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="1">
         <f>E4*C4</f>
         <v>154</v>
       </c>
-      <c r="G4" s="2"/>
+      <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" s="1">
+        <v>6</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="5">
+        <v>50.78</v>
+      </c>
+      <c r="F5" s="1">
+        <f t="shared" ref="F5:F6" si="0">E5*C5</f>
+        <v>304.68</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="1">
+        <v>4</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="5">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" si="0"/>
+        <v>151.19999999999999</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A6" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="2">
+      <c r="C7" s="1">
         <v>4</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="4">
+      <c r="D7" s="1"/>
+      <c r="E7" s="3">
         <v>205.85</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="1">
         <f>E7*C7</f>
         <v>823.4</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>72</v>
-      </c>
+      <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="1">
+        <v>4</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="3">
+        <v>21</v>
+      </c>
+      <c r="F8" s="1">
+        <f>E8*C8</f>
+        <v>84</v>
+      </c>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C8" s="2">
+      <c r="B9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="1">
         <v>4</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="4">
-        <v>54.55</v>
-      </c>
-      <c r="F8" s="2">
-        <f>E8*C8</f>
-        <v>218.2</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="2" t="s">
+      <c r="D9" s="6">
+        <v>3.6</v>
+      </c>
+      <c r="E9" s="5">
+        <f>D9*$I$2</f>
+        <v>5.0039999999999996</v>
+      </c>
+      <c r="F9" s="1">
+        <f>E9*C9</f>
+        <v>20.015999999999998</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="2">
-        <v>4</v>
-      </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="4">
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="6">
+        <v>5.2</v>
+      </c>
+      <c r="E10" s="5">
+        <f t="shared" ref="E10:E12" si="1">D10*$I$2</f>
+        <v>7.2279999999999998</v>
+      </c>
+      <c r="F10" s="1">
+        <f>E10*C10</f>
+        <v>7.2279999999999998</v>
+      </c>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="2">
-        <f>E9*C9</f>
-        <v>84</v>
-      </c>
-      <c r="G9" s="2"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="2">
-        <v>4</v>
-      </c>
-      <c r="D10" s="7">
-        <v>3.6</v>
-      </c>
-      <c r="E10" s="6">
-        <f>D10*$I$2</f>
-        <v>5.0039999999999996</v>
-      </c>
-      <c r="F10" s="2">
-        <f>E10*C10</f>
-        <v>20.015999999999998</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A11" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C11" s="2">
+      <c r="B11" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="1">
+        <v>2</v>
+      </c>
+      <c r="D11" s="6">
+        <v>5.7</v>
+      </c>
+      <c r="E11" s="5">
+        <f t="shared" si="1"/>
+        <v>7.923</v>
+      </c>
+      <c r="F11" s="1">
+        <f t="shared" ref="F11:F12" si="2">E11*C11</f>
+        <v>15.846</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A12" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="7">
-        <v>5.2</v>
-      </c>
-      <c r="E11" s="6">
-        <f t="shared" ref="E11:E13" si="0">D11*$I$2</f>
-        <v>7.2279999999999998</v>
-      </c>
-      <c r="F11" s="2">
-        <f>E11*C11</f>
-        <v>7.2279999999999998</v>
-      </c>
-      <c r="G11" s="2"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A12" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C12" s="2">
-        <v>1</v>
-      </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F12" s="2">
-        <f t="shared" ref="F12:F13" si="1">E12*C12</f>
-        <v>0</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A13" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C13" s="2">
-        <v>1</v>
-      </c>
-      <c r="D13" s="7">
+      <c r="D12" s="6">
         <v>2.29</v>
       </c>
-      <c r="E13" s="6">
-        <f t="shared" si="0"/>
-        <v>3.1831</v>
-      </c>
-      <c r="F13" s="2">
+      <c r="E12" s="5">
         <f t="shared" si="1"/>
         <v>3.1831</v>
       </c>
-      <c r="G13" s="2"/>
+      <c r="F12" s="1">
+        <f t="shared" si="2"/>
+        <v>3.1831</v>
+      </c>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="1">
+        <v>2</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="6">
+        <v>10.66</v>
+      </c>
+      <c r="F13" s="1">
+        <f>E13*C13</f>
+        <v>21.32</v>
+      </c>
+      <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="1">
+        <v>30</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="5">
+        <v>0.73499999999999999</v>
+      </c>
+      <c r="F14" s="1">
+        <f>E14*C14</f>
+        <v>22.05</v>
+      </c>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A15" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" s="1">
+        <v>100</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="5">
+        <v>0.24099999999999999</v>
+      </c>
+      <c r="F15" s="1">
+        <f t="shared" ref="F15:F16" si="3">E15*C15</f>
+        <v>24.099999999999998</v>
+      </c>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A16" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="2">
+      <c r="B16" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" s="1">
+        <v>100</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="5">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="F16" s="1">
+        <f t="shared" si="3"/>
+        <v>3.3000000000000003</v>
+      </c>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="1">
+        <v>30</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="3">
+        <v>42.31</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="1">
+        <v>9</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="6">
+        <v>12.54</v>
+      </c>
+      <c r="F18" s="1">
+        <f t="shared" ref="F18:F24" si="4">E18*C18</f>
+        <v>112.85999999999999</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A19" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="1">
         <v>2</v>
       </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="7">
-        <v>10.66</v>
-      </c>
-      <c r="F14" s="2">
-        <f>E14*C14</f>
-        <v>21.32</v>
-      </c>
-      <c r="G14" s="2"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A15" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="2">
-        <v>30</v>
-      </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="6">
-        <v>0.73499999999999999</v>
-      </c>
-      <c r="F15" s="2">
-        <f>E15*C15</f>
-        <v>22.05</v>
-      </c>
-      <c r="G15" s="2"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A16" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" s="2">
-        <v>30</v>
-      </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="4">
-        <v>42.31</v>
-      </c>
-      <c r="G18" s="2" t="s">
+      <c r="D19" s="6">
+        <v>6.99</v>
+      </c>
+      <c r="E19" s="5">
+        <f>D19*$I$2</f>
+        <v>9.7160999999999991</v>
+      </c>
+      <c r="F19" s="1">
+        <f t="shared" si="4"/>
+        <v>19.432199999999998</v>
+      </c>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A20" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A19" s="2" t="s">
+      <c r="B20" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19" s="2">
-        <v>9</v>
-      </c>
-      <c r="D19" s="2"/>
-      <c r="E19" s="7">
-        <v>12.54</v>
-      </c>
-      <c r="F19" s="2">
-        <f>E19*C19</f>
-        <v>112.85999999999999</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A20" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C20" s="2">
+      <c r="C20" s="1">
         <v>2</v>
       </c>
-      <c r="D20" s="7">
-        <v>6.99</v>
-      </c>
+      <c r="D20" s="1"/>
       <c r="E20" s="6">
-        <f>D20*$I$2</f>
-        <v>9.7160999999999991</v>
-      </c>
-      <c r="F20" s="2">
-        <f>E20*C20</f>
-        <v>19.432199999999998</v>
-      </c>
-      <c r="G20" s="2"/>
+        <v>13.9</v>
+      </c>
+      <c r="F20" s="1">
+        <f t="shared" si="4"/>
+        <v>27.8</v>
+      </c>
+      <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="5">
+        <v>20.64</v>
+      </c>
+      <c r="F21" s="3">
+        <f t="shared" si="4"/>
+        <v>20.64</v>
+      </c>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A22" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B22" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C22" s="1">
+        <v>5</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="4">
+        <v>2.98</v>
+      </c>
+      <c r="F22" s="3">
+        <f t="shared" si="4"/>
+        <v>14.9</v>
+      </c>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A23" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="1">
+        <v>5</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="4">
+        <v>8.75</v>
+      </c>
+      <c r="F23" s="3">
+        <f t="shared" si="4"/>
+        <v>43.75</v>
+      </c>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A24" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" s="1">
+        <v>5</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="4">
+        <v>9.14</v>
+      </c>
+      <c r="F24" s="3">
+        <f t="shared" si="4"/>
+        <v>45.7</v>
+      </c>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A25" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" s="1">
+        <v>3</v>
+      </c>
+      <c r="D25" s="1">
+        <v>4.8</v>
+      </c>
+      <c r="E25" s="5">
+        <f>D25*$I$2</f>
+        <v>6.6719999999999997</v>
+      </c>
+      <c r="F25" s="3">
+        <f t="shared" ref="F25:F26" si="5">E25*C25</f>
+        <v>20.015999999999998</v>
+      </c>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A26" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" s="1">
+        <v>3</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="E26" s="5">
+        <f>D26*$I$2</f>
+        <v>1.1119999999999999</v>
+      </c>
+      <c r="F26" s="3">
+        <f t="shared" si="5"/>
+        <v>3.3359999999999994</v>
+      </c>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A27" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" s="1">
+        <v>1</v>
+      </c>
+      <c r="D27" s="1"/>
+      <c r="E27" s="4">
+        <v>8.9499999999999993</v>
+      </c>
+      <c r="F27" s="3">
+        <f>E27*C27</f>
+        <v>8.9499999999999993</v>
+      </c>
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A28" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28" s="1">
+        <v>10</v>
+      </c>
+      <c r="D28" s="1">
+        <v>5.77</v>
+      </c>
+      <c r="E28" s="5">
+        <f>D28*$I$2</f>
+        <v>8.0202999999999989</v>
+      </c>
+      <c r="F28" s="3">
+        <f t="shared" ref="F28:F29" si="6">E28*C28</f>
+        <v>80.202999999999989</v>
+      </c>
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A29" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29" s="1">
+        <v>1</v>
+      </c>
+      <c r="D29" s="1">
+        <v>11.6</v>
+      </c>
+      <c r="E29" s="5">
+        <f>D29*$I$2</f>
+        <v>16.123999999999999</v>
+      </c>
+      <c r="F29" s="3">
+        <f t="shared" si="6"/>
+        <v>16.123999999999999</v>
+      </c>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A30" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" s="1">
+        <v>1</v>
+      </c>
+      <c r="D30" s="1"/>
+      <c r="E30" s="4">
+        <v>246.37</v>
+      </c>
+      <c r="F30" s="3">
+        <f>E30*C30</f>
+        <v>246.37</v>
+      </c>
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A31" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C31" s="1">
+        <v>4</v>
+      </c>
+      <c r="D31" s="1"/>
+      <c r="E31" s="4">
+        <v>196.77</v>
+      </c>
+      <c r="F31" s="3">
+        <f>E31*C31</f>
+        <v>787.08</v>
+      </c>
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A32" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C32" s="1">
+        <v>8</v>
+      </c>
+      <c r="D32" s="1"/>
+      <c r="E32" s="4">
+        <v>6.25</v>
+      </c>
+      <c r="F32" s="3">
+        <f>E32*C32</f>
+        <v>50</v>
+      </c>
+      <c r="G32" s="1"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A33" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C33" s="1">
+        <v>100</v>
+      </c>
+      <c r="D33" s="1"/>
+      <c r="E33" s="4">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="F33" s="3">
+        <f>E33*C33</f>
+        <v>252.99999999999997</v>
+      </c>
+      <c r="G33" s="1"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A34" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C34" s="1">
         <v>2</v>
       </c>
-      <c r="D21" s="2"/>
-      <c r="E21" s="7">
-        <v>13.9</v>
-      </c>
-      <c r="F21" s="2">
-        <f>E21*C21</f>
-        <v>27.8</v>
-      </c>
-      <c r="G21" s="2"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C22" s="2">
-        <v>1</v>
-      </c>
-      <c r="D22" s="2"/>
-      <c r="E22" s="6">
-        <v>20.64</v>
-      </c>
-      <c r="F22" s="4">
-        <f>E22*C22</f>
-        <v>20.64</v>
-      </c>
-      <c r="G22" s="2"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A23" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B23" s="2" t="s">
+      <c r="D34" s="1"/>
+      <c r="E34" s="4">
+        <v>21</v>
+      </c>
+      <c r="F34" s="3">
+        <f>E34*C34</f>
         <v>42</v>
       </c>
-      <c r="C23" s="2">
-        <v>5</v>
-      </c>
-      <c r="D23" s="2"/>
-      <c r="E23" s="5">
-        <v>2.98</v>
-      </c>
-      <c r="F23" s="4">
-        <f>E23*C23</f>
-        <v>14.9</v>
-      </c>
-      <c r="G23" s="2"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A24" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C24" s="2">
-        <v>5</v>
-      </c>
-      <c r="D24" s="2"/>
-      <c r="E24" s="5">
-        <v>8.75</v>
-      </c>
-      <c r="F24" s="4">
-        <f>E24*C24</f>
-        <v>43.75</v>
-      </c>
-      <c r="G24" s="2"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A25" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C25" s="2">
-        <v>5</v>
-      </c>
-      <c r="D25" s="2"/>
-      <c r="E25" s="5">
-        <v>9.14</v>
-      </c>
-      <c r="F25" s="4">
-        <f>E25*C25</f>
-        <v>45.7</v>
-      </c>
-      <c r="G25" s="2"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A26" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C26" s="2">
-        <v>3</v>
-      </c>
-      <c r="D26" s="2">
-        <v>4.8</v>
-      </c>
-      <c r="E26" s="6">
-        <f>D26*$I$2</f>
-        <v>6.6719999999999997</v>
-      </c>
-      <c r="F26" s="4">
-        <f t="shared" ref="F26:F27" si="2">E26*C26</f>
-        <v>20.015999999999998</v>
-      </c>
-      <c r="G26" s="2"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A27" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C27" s="2">
-        <v>3</v>
-      </c>
-      <c r="D27" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="E27" s="6">
-        <f>D27*$I$2</f>
-        <v>1.1119999999999999</v>
-      </c>
-      <c r="F27" s="4">
-        <f t="shared" si="2"/>
-        <v>3.3359999999999994</v>
-      </c>
-      <c r="G27" s="2"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A28" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C28" s="2">
-        <v>1</v>
-      </c>
-      <c r="D28" s="2"/>
-      <c r="E28" s="5">
-        <v>8.9499999999999993</v>
-      </c>
-      <c r="F28" s="4">
-        <f>E28*C28</f>
-        <v>8.9499999999999993</v>
-      </c>
-      <c r="G28" s="2"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A29" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C29" s="2">
-        <v>10</v>
-      </c>
-      <c r="D29" s="2">
-        <v>5.77</v>
-      </c>
-      <c r="E29" s="6">
-        <f>D29*$I$2</f>
-        <v>8.0202999999999989</v>
-      </c>
-      <c r="F29" s="4">
-        <f t="shared" ref="F29:F30" si="3">E29*C29</f>
-        <v>80.202999999999989</v>
-      </c>
-      <c r="G29" s="2"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A30" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C30" s="2">
-        <v>1</v>
-      </c>
-      <c r="D30" s="2">
-        <v>11.6</v>
-      </c>
-      <c r="E30" s="6">
-        <f>D30*$I$2</f>
-        <v>16.123999999999999</v>
-      </c>
-      <c r="F30" s="4">
-        <f t="shared" si="3"/>
-        <v>16.123999999999999</v>
-      </c>
-      <c r="G30" s="2"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A31" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C31" s="2">
-        <v>1</v>
-      </c>
-      <c r="D31" s="2"/>
-      <c r="E31" s="5">
-        <v>246.37</v>
-      </c>
-      <c r="F31" s="4">
-        <f>E31*C31</f>
-        <v>246.37</v>
-      </c>
-      <c r="G31" s="2"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A32" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C32" s="2">
-        <v>4</v>
-      </c>
-      <c r="D32" s="2"/>
-      <c r="E32" s="5">
-        <v>196.77</v>
-      </c>
-      <c r="F32" s="4">
-        <f>E32*C32</f>
-        <v>787.08</v>
-      </c>
-      <c r="G32" s="2"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A33" s="3" t="s">
+      <c r="G34" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A35" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C35" s="1">
+        <v>2</v>
+      </c>
+      <c r="D35" s="1">
+        <v>15.99</v>
+      </c>
+      <c r="E35" s="5">
+        <f>D35*$I$2</f>
+        <v>22.226099999999999</v>
+      </c>
+      <c r="F35" s="3">
+        <f>E35*C35</f>
+        <v>44.452199999999998</v>
+      </c>
+      <c r="G35" s="1"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A36" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B36" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C36" s="1">
+        <v>2</v>
+      </c>
+      <c r="D36" s="1">
+        <v>6.11</v>
+      </c>
+      <c r="E36" s="5">
+        <f>D36*$I$2</f>
+        <v>8.4929000000000006</v>
+      </c>
+      <c r="F36" s="3">
+        <f>E36*C36</f>
+        <v>16.985800000000001</v>
+      </c>
+      <c r="G36" s="1"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E37" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C33" s="2">
-        <v>8</v>
-      </c>
-      <c r="D33" s="2"/>
-      <c r="E33" s="5">
-        <v>6.25</v>
-      </c>
-      <c r="F33" s="4">
-        <f>E33*C33</f>
-        <v>50</v>
-      </c>
-      <c r="G33" s="2"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A34" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C34" s="2">
-        <v>100</v>
-      </c>
-      <c r="D34" s="2"/>
-      <c r="E34" s="5">
-        <v>2.5299999999999998</v>
-      </c>
-      <c r="F34" s="4">
-        <f>E34*C34</f>
-        <v>252.99999999999997</v>
-      </c>
-      <c r="G34" s="2"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A35" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="2"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="E36" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F36" s="2">
-        <f>SUM(F3:F34)</f>
-        <v>3192.6082999999999</v>
+      <c r="F37" s="1">
+        <f>SUM(F3:F33)</f>
+        <v>3473.5342999999998</v>
       </c>
     </row>
   </sheetData>
